--- a/data/Alterar Status - Firefox.xlsx
+++ b/data/Alterar Status - Firefox.xlsx
@@ -405,7 +405,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,7 +447,7 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>1055</v>
+        <v>1063</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -467,7 +467,7 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>1055</v>
+        <v>1063</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
